--- a/data-raw/smith.wheat.ears.xlsx
+++ b/data-raw/smith.wheat.ears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wrightkevi\OneDrive\kw_work\rpack\agridat\data-unused\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE406DBE-D9D7-4917-A77C-7FBF338BBD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4900C08-3770-405D-8EA2-F8152A6C624D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="-120" windowWidth="18045" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="1060" windowWidth="7590" windowHeight="8130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3674,8 +3670,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Arial"&amp;10&amp;K000000---Internal Use---</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>